--- a/src/excel/order.xlsx
+++ b/src/excel/order.xlsx
@@ -54,18 +54,6 @@
     <t>Загальна ціна ₴</t>
   </si>
   <si>
-    <t xml:space="preserve">Проєкційний дисплей AKARUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435345345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоаксесуар BLACK&amp;DECKER пилосос автомобільний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4353453454</t>
-  </si>
-  <si>
     <t xml:space="preserve">Органайзер в багажник авто Bodasan</t>
   </si>
   <si>
@@ -89,134 +77,6 @@
   <fonts x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,22 +211,6 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
     <fill/>
     <fill/>
     <fill/>
@@ -415,118 +259,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -654,22 +386,6 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1051,95 +767,43 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>450</v>
+      </c>
+      <c r="F4" s="9">
         <v>20</v>
       </c>
-      <c r="E4" s="8">
-        <v>750</v>
-      </c>
-      <c r="F4" s="9">
-        <v>30</v>
-      </c>
       <c r="G4" s="10">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="H4" s="11">
-        <v>22500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s" s="13">
+      <c r="G5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15">
-        <v>30</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1125</v>
-      </c>
-      <c r="F5" s="17">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1200</v>
-      </c>
-      <c r="H5" s="19">
-        <v>45000</v>
+      <c r="H5" s="13">
+        <v>240</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="21">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="G6" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E6" s="24">
-        <v>450</v>
-      </c>
-      <c r="F6" s="25">
-        <v>50</v>
-      </c>
-      <c r="G6" s="26">
-        <v>600</v>
-      </c>
-      <c r="H6" s="27">
-        <v>22500</v>
+      <c r="H6" s="15">
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" t="s" s="28">
-        <v>15</v>
-      </c>
-      <c r="H7" s="29">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="H8" s="31">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="s" s="32">
-        <v>17</v>
-      </c>
-      <c r="H9" s="33">
-        <v>45000</v>
+      <c r="G7" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="H7" s="17">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
